--- a/FICHA_TRABAJADOR.xlsx
+++ b/FICHA_TRABAJADOR.xlsx
@@ -1,169 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\FICHA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD24C664-0FCA-48F3-A279-B26B9ECB126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Productos" sheetId="1" r:id="rId1"/>
+    <sheet name="Productos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
-  <si>
-    <t>DATOS PERSONALES</t>
-  </si>
-  <si>
-    <t>DATOS MEDICOS</t>
-  </si>
-  <si>
-    <t>CONTACTOS DE EMERGENCIAS</t>
-  </si>
-  <si>
-    <t>CLINICA</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>RFC</t>
-  </si>
-  <si>
-    <t>F_NACIMIENTO</t>
-  </si>
-  <si>
-    <t>ENFERMEDADES</t>
-  </si>
-  <si>
-    <t>MEDICAMENTOS</t>
-  </si>
-  <si>
-    <t>ALERGIAS_A</t>
-  </si>
-  <si>
-    <t>ALERGIAS_F</t>
-  </si>
-  <si>
-    <t>G_SANGUINEO</t>
-  </si>
-  <si>
-    <t>C_NOMBRE1</t>
-  </si>
-  <si>
-    <t>PARENTESCO1</t>
-  </si>
-  <si>
-    <t>TELEFONO1</t>
-  </si>
-  <si>
-    <t>C_NOMBRE2</t>
-  </si>
-  <si>
-    <t>PARENTESCO2</t>
-  </si>
-  <si>
-    <t>TELEFONO2</t>
-  </si>
-  <si>
-    <t>CRISTHIAN</t>
-  </si>
-  <si>
-    <t>SISTEMAS</t>
-  </si>
-  <si>
-    <t>PEVC930602R50</t>
-  </si>
-  <si>
-    <t>02/06/1993</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>MADRE</t>
-  </si>
-  <si>
-    <t>5554031495</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>COMPAÑERA</t>
-  </si>
-  <si>
-    <t>5527103944</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Montserrat"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -221,49 +118,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -551,152 +527,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col width="8.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="4.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="15.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="14" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="8" bestFit="1" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>DATOS PERSONALES</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>DATOS MEDICOS</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="n"/>
+      <c r="G1" s="5" t="n"/>
+      <c r="H1" s="5" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>CONTACTOS DE EMERGENCIAS</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="n"/>
+      <c r="L1" s="5" t="n"/>
+      <c r="M1" s="5" t="n"/>
+      <c r="N1" s="5" t="n"/>
+      <c r="O1" s="6" t="n"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CLINICA</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2"/>
+    <row r="2">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>AREA</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>RFC</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>F_NACIMIENTO</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>ENFERMEDADES</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>MEDICAMENTOS</t>
+        </is>
+      </c>
+      <c r="G2" s="9" t="inlineStr">
+        <is>
+          <t>ALERGIAS_A</t>
+        </is>
+      </c>
+      <c r="H2" s="9" t="inlineStr">
+        <is>
+          <t>ALERGIAS_F</t>
+        </is>
+      </c>
+      <c r="I2" s="9" t="inlineStr">
+        <is>
+          <t>G_SANGUINEO</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C_NOMBRE1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>PARENTESCO1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>TELEFONO1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C_NOMBRE2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>PARENTESCO2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>TELEFONO2</t>
+        </is>
+      </c>
+      <c r="P2" s="9" t="n"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SISTEMAS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PEVC930602R50</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>02/06/1993</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>MADRE</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>5554031495</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>COMPAÑERA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>5527103944</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maria de la Paz de Luz</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sistemas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PAC6404308Z8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30/04/1964</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MAL DEL PUERCO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>KY6</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>HUEVO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PENICILINA</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>RH O+</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>COMPAÑERO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>5519336617</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>COMAPÑERO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>5519191919</t>
+        </is>
       </c>
     </row>
   </sheetData>
